--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srinivaskoduri/SBSquares/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862363E-F65D-8E42-A4B9-800807E0CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F1A1B0-7D64-6342-9031-40DB5BD077E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="68480" windowHeight="26280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
   <si>
     <t>Task #</t>
   </si>
@@ -244,6 +244,15 @@
     <t>Add admin ability to edit team names with safety checks</t>
   </si>
   <si>
+    <t>Create Help / How to Play page at /help</t>
+  </si>
+  <si>
+    <t>app/help/page.tsx, app/page.tsx, app/game/[gameId]/page.tsx</t>
+  </si>
+  <si>
+    <t>Sliding number digits use theme/team primary color + deploy</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -262,7 +271,10 @@
     <t>1/1 completed</t>
   </si>
   <si>
-    <t>24/24 completed</t>
+    <t>6/6 completed</t>
+  </si>
+  <si>
+    <t>25/25 completed</t>
   </si>
   <si>
     <t>By Type</t>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B37"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>41</v>
       </c>
@@ -1421,85 +1433,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>44</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="6">
-        <v>36</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="6">
-        <v>36</v>
-      </c>
+      <c r="A41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="6">
+        <v>38</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6">
+        <v>38</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1507,10 +1535,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1519,10 +1547,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1531,10 +1559,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1542,42 +1570,42 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="6">
-        <v>6</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
+      <c r="A52" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -1585,10 +1613,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B53" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1597,10 +1625,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B54" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1609,10 +1637,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B55" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1621,10 +1649,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B56" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1633,10 +1661,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B57" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1644,12 +1672,56 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="6">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B58">
+      <c r="B60" s="6">
         <v>1</v>
       </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +45,11 @@
     <font/>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -95,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,6 +121,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
@@ -2725,239 +2731,362 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="B76" s="10" t="inlineStr">
+        <is>
+          <t>Design game limit and superadmin safeguards</t>
+        </is>
+      </c>
+      <c r="C76" s="10" t="inlineStr">
+        <is>
+          <t>Architecture</t>
+        </is>
+      </c>
+      <c r="D76" s="10" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E76" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="inlineStr">
+        <is>
+          <t>N/A (design document)</t>
+        </is>
+      </c>
+    </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Summary</t>
+      <c r="A77" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>Add game creation limit (max 20) to landing page</t>
+        </is>
+      </c>
+      <c r="C77" s="10" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D77" s="10" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E77" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="inlineStr">
+        <is>
+          <t>app/page.tsx, lib/constants.ts</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Total Tasks:</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>73</v>
+      <c r="A78" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="B78" s="10" t="inlineStr">
+        <is>
+          <t>Create superadmin PIN verification API route</t>
+        </is>
+      </c>
+      <c r="C78" s="10" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D78" s="10" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E78" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="inlineStr">
+        <is>
+          <t>app/api/superadmin/verify/route.ts, .env.local</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Completed:</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>73</v>
+      <c r="A79" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="B79" s="10" t="inlineStr">
+        <is>
+          <t>Build superadmin dashboard page</t>
+        </is>
+      </c>
+      <c r="C79" s="10" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D79" s="10" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E79" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="inlineStr">
+        <is>
+          <t>app/superadmin/page.tsx, lib/utils.ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>Create dummy test data for game limit testing</t>
+        </is>
+      </c>
+      <c r="C80" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="D80" s="10" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E80" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="inlineStr">
+        <is>
+          <t>N/A (test data)</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>By Assignee</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A81" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="B81" s="10" t="inlineStr">
+        <is>
+          <t>Verify cascade delete and game limit enforcement</t>
+        </is>
+      </c>
+      <c r="C81" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="D81" s="10" t="inlineStr">
         <is>
           <t>architect</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>5/5 completed</t>
-        </is>
-      </c>
-    </row>
+      <c r="E81" s="10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="inlineStr">
+        <is>
+          <t>N/A (verification)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>architect + team-lead-2</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
+          <t>Summary</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>backend-dev</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>10/10 completed</t>
-        </is>
+          <t>Total Tasks:</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2/2 completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>devops + team-lead-2</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
-        </is>
-      </c>
-    </row>
+          <t>Completed:</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86"/>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>team-lead</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
+          <t>By Assignee</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>team-lead-2</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>13/13 completed</t>
+          <t>7/7 completed</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>uat-tester</t>
+          <t>architect + team-lead-2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6/6 completed</t>
+          <t>1/1 completed</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ui-dev</t>
+          <t>backend-dev</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>34/34 completed</t>
+          <t>10/10 completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>devops</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2/2 completed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>By Type</t>
+          <t>devops + team-lead-2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Architecture</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>4</v>
+          <t>team-lead</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bug Fix</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>13</v>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>13/13 completed</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>1</v>
+          <t>uat-tester</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>6/6 completed</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DevOps</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Enhancement</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>11</v>
-      </c>
-    </row>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>37/37 completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97"/>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Feature</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>20</v>
+          <t>By Type</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Migration</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Research</t>
+          <t>Bug Fix</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2967,31 +3096,101 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>UAT</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UI Fix</t>
+          <t>Enhancement</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>UI Fix</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>UI Redesign</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B110" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3035,308 +3035,600 @@
         </is>
       </c>
     </row>
-    <row r="86"/>
+    <row r="86">
+      <c r="A86" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>Add all 32 NFL teams master list to lib/constants.ts</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>lib/constants.ts</t>
+        </is>
+      </c>
+    </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Summary</t>
+      <c r="A87" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>Update TeamLogo.tsx to use NFL_TEAMS from constants (all 32 teams)</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>components/TeamLogo.tsx</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Total Tasks:</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>84</v>
+      <c r="A88" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>Add color palettes for all 32 NFL teams in use-theme.ts</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="inlineStr">
+        <is>
+          <t>hooks/use-theme.ts</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Completed:</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90"/>
+      <c r="A89" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>Design TeamCombobox UX specification</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>ux-expert</t>
+        </is>
+      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="inlineStr">
+        <is>
+          <t>N/A (design spec)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>Build TeamCombobox component with filtered dropdown and logo preview</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="inlineStr">
+        <is>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="inlineStr">
+        <is>
+          <t>components/TeamCombobox.tsx</t>
+        </is>
+      </c>
+    </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>By Assignee</t>
+      <c r="A91" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>Replace team inputs in game creation form with TeamCombobox</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="inlineStr">
+        <is>
+          <t>app/page.tsx</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>architect</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7/7 completed</t>
+      <c r="A92" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>Replace team inputs in admin page with TeamCombobox</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/admin/page.tsx</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>architect + team-lead-2</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
+      <c r="A93" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>Add city field to NFL_TEAMS and city search in TeamCombobox</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="inlineStr">
+        <is>
+          <t>lib/constants.ts, components/TeamCombobox.tsx</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>backend-dev</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>10/10 completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2/2 completed</t>
-        </is>
-      </c>
-    </row>
+      <c r="A94" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>Prevent duplicate team selection (same team for row and col)</t>
+        </is>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="inlineStr">
+        <is>
+          <t>orchestrator</t>
+        </is>
+      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="inlineStr">
+        <is>
+          <t>app/page.tsx, app/game/[gameId]/admin/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95"/>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>devops + team-lead-2</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
+          <t>Summary</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>team-lead</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1/1 completed</t>
-        </is>
+          <t>Total Tasks:</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>team-lead-2</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>13/13 completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>uat-tester</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>6/6 completed</t>
-        </is>
-      </c>
-    </row>
+          <t>Completed:</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99"/>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ui-dev</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>37/37 completed</t>
+          <t>By Assignee</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="inlineStr">
-        <is>
-          <t>orchestrator</t>
-        </is>
-      </c>
-      <c r="B101" s="7" t="inlineStr">
-        <is>
-          <t>5/5 completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="102"/>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>7/7 completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>architect + team-lead-2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
+      </c>
+    </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>By Type</t>
+          <t>backend-dev</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10/10 completed</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Architecture</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>5</v>
+          <t>devops</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2/2 completed</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bug Fix</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>14</v>
+          <t>devops + team-lead-2</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
+          <t>team-lead</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DevOps</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>5</v>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>15/15 completed</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Enhancement</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>11</v>
+          <t>uat-tester</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>6/6 completed</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Feature</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>24</v>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>42/42 completed</t>
+        </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Migration</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
+      <c r="A110" s="7" t="inlineStr">
+        <is>
+          <t>orchestrator</t>
+        </is>
+      </c>
+      <c r="B110" s="7" t="inlineStr">
+        <is>
+          <t>6/6 completed</t>
+        </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Research</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="A111" s="7" t="inlineStr">
+        <is>
+          <t>ux-expert</t>
+        </is>
+      </c>
+      <c r="B111" s="7" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112"/>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>6</v>
+          <t>By Type</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>UI Fix</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>UI Redesign</t>
+          <t>Bug Fix</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DevOps</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>UI Fix</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>UI Redesign</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B126" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="7" t="inlineStr">
+    <row r="127">
+      <c r="A127" s="7" t="inlineStr">
         <is>
           <t>Docs</t>
         </is>
       </c>
-      <c r="B117" s="7" t="n">
+      <c r="B127" s="7" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="B128" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3305,296 +3305,548 @@
         </is>
       </c>
     </row>
-    <row r="95"/>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>114</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Add auto_scores_enabled and espn_event_id columns to games table + update TypeScript types</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>supabase/migrations/20250207000000_live_scores.sql, lib/types.ts</t>
+        </is>
+      </c>
+    </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Summary</t>
+      <c r="A96" t="n">
+        <v>115</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Build ESPN API client with scoreboard fetch, game parser, team finder, and team-axis matcher</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>lib/espn.ts</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Total Tasks:</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>93</v>
+      <c r="A97" t="n">
+        <v>116</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Create live-scores API route with ESPN polling, score mapping, and Supabase upserts</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>app/api/live-scores/route.ts</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Completed:</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99"/>
+      <c r="A98" t="n">
+        <v>117</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Create client-side polling hook with adaptive intervals (30s live, 60s idle)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>hooks/use-live-scores.ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>118</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Add auto-update ESPN toggle, NFL status indicator, and disable manual inputs in ScoreEntry</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/admin/page.tsx</t>
+        </is>
+      </c>
+    </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>By Assignee</t>
+      <c r="A100" t="n">
+        <v>119</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Research NFL live score APIs (ESPN public scoreboard, no auth required)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>product-researcher</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>N/A (research only)</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" t="n">
+        <v>120</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Create architecture plan for live score auto-update feature (data flow, file list, edge cases)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Docs</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>architect</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>7/7 completed</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>N/A (architecture plan)</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>architect + team-lead-2</t>
-        </is>
+      <c r="A102" t="n">
+        <v>121</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1/1 completed</t>
+          <t>Add Super Bowl auto-detect endpoint using ESPN scoreboard date filtering and team matching</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>app/api/live-scores/detect/route.ts, lib/espn.ts</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>backend-dev</t>
-        </is>
+      <c r="A103" t="n">
+        <v>122</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10/10 completed</t>
+          <t>Fix ESPN fetchESPNScores to fallback to summary endpoint for historical games</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bugfix</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>lib/espn.ts</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
+      <c r="A104" t="n">
+        <v>123</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2/2 completed</t>
+          <t>Free tier safety analysis for live score polling (30s interval confirmed safe)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>N/A (analysis only)</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>devops + team-lead-2</t>
-        </is>
+      <c r="A105" t="n">
+        <v>124</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1/1 completed</t>
+          <t>Add live score polling free tier analysis to research findings doc</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Docs</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>product-researcher</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>docs/research-findings.md</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>team-lead</t>
-        </is>
+      <c r="A106" t="n">
+        <v>125</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1/1 completed</t>
+          <t>Add Session 5 agent team success story to README</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Docs</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>README.md</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>team-lead-2</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>15/15 completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>uat-tester</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>6/6 completed</t>
-        </is>
-      </c>
-    </row>
+          <t>Completed:</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108"/>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ui-dev</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>42/42 completed</t>
+          <t>By Assignee</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="inlineStr">
-        <is>
-          <t>orchestrator</t>
-        </is>
-      </c>
-      <c r="B110" s="7" t="inlineStr">
-        <is>
-          <t>6/6 completed</t>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>7/7 completed</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="inlineStr">
-        <is>
-          <t>ux-expert</t>
-        </is>
-      </c>
-      <c r="B111" s="7" t="inlineStr">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>architect + team-lead-2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>1/1 completed</t>
         </is>
       </c>
     </row>
-    <row r="112"/>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>backend-dev</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>10/10 completed</t>
+        </is>
+      </c>
+    </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>By Type</t>
+          <t>devops</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2/2 completed</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Architecture</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>5</v>
+          <t>devops + team-lead-2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bug Fix</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>15</v>
+          <t>team-lead</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Config</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
+          <t>team-lead-2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>15/15 completed</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DevOps</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>5</v>
+          <t>uat-tester</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>6/6 completed</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Enhancement</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>16</v>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>42/42 completed</t>
+        </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Feature</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>26</v>
+      <c r="A119" s="7" t="inlineStr">
+        <is>
+          <t>orchestrator</t>
+        </is>
+      </c>
+      <c r="B119" s="7" t="inlineStr">
+        <is>
+          <t>6/6 completed</t>
+        </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Migration</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Research</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="A120" s="7" t="inlineStr">
+        <is>
+          <t>ux-expert</t>
+        </is>
+      </c>
+      <c r="B120" s="7" t="inlineStr">
+        <is>
+          <t>1/1 completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121"/>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
+          <t>By Type</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>UAT</t>
+          <t>Architecture</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>UI Fix</t>
+          <t>Bug Fix</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>UI Redesign</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3604,30 +3856,120 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>DevOps</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>UI Fix</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>UI Redesign</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B135" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="7" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="7" t="inlineStr">
         <is>
           <t>Docs</t>
         </is>
       </c>
-      <c r="B127" s="7" t="n">
+      <c r="B136" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="7" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="7" t="inlineStr">
         <is>
           <t>UX</t>
         </is>
       </c>
-      <c r="B128" s="7" t="n">
+      <c r="B137" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3973,6 +3973,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>126</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>QR code session redirect — redirect returning players to game view</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>app/join/[gameCode]/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>127</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Game code reminder toast after joining via QR</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>app/join/[gameCode]/page.tsx, app/game/[gameId]/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>128</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Redirect /join to /?code= when game not accepting players</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>app/join/[gameCode]/page.tsx, app/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>129</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Add system theme option with 3-segment toggle (dark/light/system)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>hooks/use-theme.ts, app/layout.tsx, app/game/[gameId]/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>130</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Improve grid cell border visibility in dark mode</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>components/GridCell.tsx, components/Grid.tsx, lib/utils.ts</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3675,7 +3675,6 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108"/>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
@@ -3815,7 +3814,6 @@
         </is>
       </c>
     </row>
-    <row r="121"/>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
@@ -4120,6 +4118,456 @@
       <c r="F142" t="inlineStr">
         <is>
           <t>components/GridCell.tsx, components/Grid.tsx, lib/utils.ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>20</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Floating bottom bar for tentative pick UI (PickControls manual mode redesign, info/warning toasts, grid padding)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>21</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Replace pick toasts with modals (info toast firing repeatedly, 30s warning not prominent enough)</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>145</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Fix dot indicator count showing x/10 instead of x/5 - totalPicks was picksUsed+picksRemaining (double counting tentative picks), changed to picksRemaining only</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>146</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Fix timeout handler stale closure and over-filling - added handleTimeoutRef for latest closure, re-fetches fresh squares from DB instead of stale state, added Math.max(0,...) safety cap</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>147</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Add mutex lock (pickingRef) to handleTentativePick to prevent race condition from fast double-clicks</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>131</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Enhanced grid cell visibility (solid borders, glow, thicker width for self-picks in dark mode)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>components/GridCell.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>132</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Schema migration: add is_tentative and tentative_started_at columns for tentative picks</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>supabase/schema.sql, supabase/migrations/20250208000000_tentative_picks.sql, lib/game-logic.ts, app/api/live-scores/route.ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>133</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Implement tentative pick logic with circular replacement queue and 2-min timer</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>134</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Update Grid and GridCell for tentative pick visual states (pulsing ring, pick number badges)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>components/Grid.tsx, components/GridCell.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>135</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Update PickControls with confirm button, countdown timer, and floating bottom bar</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>components/PickControls.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>136</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Update admin page for tentative pick cleanup (pickOnBehalf, resetGame, clearPlayerPicks)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/admin/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>137</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Debug tentative picks failure - root cause: migration not applied to deployed DB</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>architect + ui-dev</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>N/A (migration deployment)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>138</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Fix maxPicks derivation using getDraftConfig instead of stale picks_remaining</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/page.tsx, components/PickControls.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>139</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Build admin square reassign feature with mini-grid and player dropdown</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/admin/page.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>140</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Add ref-based mutex to handleRandomPick to prevent double-fire race condition</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>components/PickControls.tsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>158</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Add ref-based mutex to handleRandomPick in PickControls to prevent double-fire via devtools bypass</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
     </row>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3675,6 +3675,7 @@
         <v>93</v>
       </c>
     </row>
+    <row r="108"/>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
@@ -3814,6 +3815,7 @@
         </is>
       </c>
     </row>
+    <row r="121"/>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
@@ -4566,6 +4568,181 @@
         </is>
       </c>
       <c r="E158" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>159</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Live Score Pulsing Squares - DB migration (live_quarter_score JSONB column)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>architect</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>160</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Live Score Pulsing Squares - CSS pulsing animations + ScoreBoard live display</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>uiux-expert</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>161</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Live Score Pulsing Squares - Grid/GridCell live winner/runner-up pulsing logic</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>ui-dev-1</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>162</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Live Score Pulsing Squares - Simulation system (API + fixture + admin runner)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ui-dev-2</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>163</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Live Score Pulsing Squares - Fix duplicate type in ScoreBoard, final review + build</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>team-lead</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>164</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Live pulsing: allow LIVE badge on squares that are already confirmed winners from earlier quarters</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Srini</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>165</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Increase badge font sizes (winner/runner-up/LIVE/tentative) from 5-8px to 10px for mobile readability</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Srini</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>Done</t>
         </is>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -3675,7 +3675,6 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108"/>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
@@ -3815,7 +3814,6 @@
         </is>
       </c>
     </row>
-    <row r="121"/>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
@@ -4745,6 +4743,166 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>166</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Gate simulation runner behind per-game simulation_enabled flag with superadmin toggle</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Srini</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>docs</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Create future plan document for server-side live score polling (pg_cron + pg_net)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>docs</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Create future plan document for Cloudflare Turnstile CAPTCHA on game creation</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>docs/plan-turnstile-captcha.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Fix draft pick race condition: serialize pickOnBehalf with promise queue, fetch fresh squares from DB, verify pick success counts, retry on contention, add queue/active UI indicators</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Add UX feedback for draft pick operations: picking banner with spinner above draft circles, toast notifications on success/failure, disable ALL pick buttons during any active operation</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ui-dev</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>168</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>bugfix</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Fix race condition in admin draft pick-on-behalf: promise queue + fresh DB reads + verify/retry + UI queue indicators</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Team (architect, uiux-expert, ui-dev)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>app/game/[gameId]/admin/page.tsx</t>
         </is>
       </c>
     </row>

--- a/SBSquares_Task_Report.xlsx
+++ b/SBSquares_Task_Report.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
@@ -4906,6 +4906,36 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>169</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Analyze 13 slow Supabase queries and create optimization plan document</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Team (architect, backend-dev)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>docs/plan-query-optimization.md</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
